--- a/GameHistoryDatabase.xlsx
+++ b/GameHistoryDatabase.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UiPath Storage\SocialClubAutomation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4F6B6D-92D5-4D00-82C9-C52D9DC551BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{EB176A6E-5D33-47B9-9001-7968EAB08D54}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GameHistoryDatabase" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,16 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>GameCodeRecorded</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,7 +92,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -105,7 +104,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -152,6 +151,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -187,6 +203,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -338,24 +371,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AC63A2-1F00-40CC-BD5B-9508027D588E}">
+  <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>88262480</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F1306B-C0B1-4648-B3E5-A11F3A0E89E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>